--- a/2025-10-13/13_combined_confidence.xlsx
+++ b/2025-10-13/13_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cape Verde - Eswatini: 17:00</t>
+          <t>Cape Verde ✓ - Eswatini: 3:0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -491,12 +491,16 @@
       <c r="F2" t="n">
         <v>1.14</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Iceland - France: 19:45</t>
+          <t>Iceland - France : 2:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cameroon - Angola: 17:00</t>
+          <t>Cameroon  - Angola: 0:0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -544,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>North Macedonia - Kazakhstan: 19:45</t>
+          <t>North Macedonia  - Kazakhstan: 1:1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sweden - Kosovo: 19:45</t>
+          <t>Sweden X - Kosovo: 0:1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -589,12 +593,16 @@
       <c r="F6" t="n">
         <v>1.36</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisia - Namibia: 14:00</t>
+          <t>Tunisia ✓ - Namibia: 3:0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -612,30 +620,11 @@
       <c r="F7" t="n">
         <v>1.4</v>
       </c>
-      <c r="G7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Club Universidad de Chile - CD Palestino: 20:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Club Universidad de Chile</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>55</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>87</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
